--- a/Songhay.Social.Shell.Tests/TweetBooks/TweetBook-2018-05.xlsx
+++ b/Songhay.Social.Shell.Tests/TweetBooks/TweetBook-2018-05.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1131" documentId="20D7C80873849F603A2FF1BC9BE4921BCFEDC7CE" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{4F389B8C-3C09-447F-9465-D4EE7CD5CEDA}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~shares\sourceRoot\Songhay.Social\Songhay.Social.Shell.Tests\TweetBooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E2B70-1ACC-4C1C-AA78-8FAFF6B5BD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="330" windowWidth="28305" windowHeight="14910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BryanWilhite" sheetId="1" r:id="rId1"/>
@@ -16,19 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1017">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Hash Tags</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1013">
   <si>
     <t>https://channel9.msdn.com/Shows/Visual-Studio-Toolbox/Functional-Programming-in-CSharp</t>
   </si>
@@ -3073,7 +3066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3111,10 +3104,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3425,3163 +3417,3146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B489" sqref="B489"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1" t="s">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+      <c r="B36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
+      <c r="B37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="1" t="s">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1" t="s">
+      <c r="B41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="1" t="s">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="1" t="s">
+      <c r="B48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1" t="s">
+      <c r="B57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1" t="s">
+      <c r="B58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+      <c r="B61" t="s">
         <v>85</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+      <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+      <c r="B64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="1" t="s">
+      <c r="B68" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="1" t="s">
+      <c r="B72" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="1" t="s">
+      <c r="B89" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="1" t="s">
+      <c r="B90" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
+      <c r="B92" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="1" t="s">
+      <c r="B104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="1" t="s">
+      <c r="B116" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="1" t="s">
+      <c r="B117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="1" t="s">
+      <c r="B122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="1" t="s">
+      <c r="B130" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="1" t="s">
+      <c r="B139" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="1" t="s">
+      <c r="B141" t="s">
         <v>181</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="1" t="s">
+      <c r="B142" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="1" t="s">
+      <c r="B150" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="1" t="s">
+      <c r="B156" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
-      <c r="B163" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
-      <c r="B164" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="2:3">
-      <c r="B166" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="B167" s="1" t="s">
+      <c r="B169" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
-      <c r="B168" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
-      <c r="B169" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="2:3">
-      <c r="B170" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="2:3">
-      <c r="B171" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
-      <c r="B173" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="2:3">
-      <c r="B174" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="175" spans="2:3">
-      <c r="B175" s="1" t="s">
+      <c r="B177" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="1" t="s">
+      <c r="B179" t="s">
         <v>226</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="1" t="s">
+      <c r="B180" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
-      <c r="B181" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="2:3">
-      <c r="B182" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="1" t="s">
+      <c r="B185" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
-      <c r="B184" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
-      <c r="B186" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
-      <c r="B187" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="188" spans="2:3">
-      <c r="B188" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="2:3">
-      <c r="B190" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="2:3">
-      <c r="B191" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
-      <c r="B192" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
-      <c r="B193" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="2:3">
-      <c r="B194" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
-      <c r="B195" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
-      <c r="B196" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="197" spans="2:3">
-      <c r="B197" s="1" t="s">
+      <c r="B199" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="198" spans="2:3">
-      <c r="B198" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="2:3">
-      <c r="B199" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="200" spans="2:3">
-      <c r="B200" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="201" spans="2:3">
-      <c r="B201" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="202" spans="2:3">
-      <c r="B202" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="203" spans="2:3">
-      <c r="B203" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
-      <c r="B204" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="205" spans="2:3">
-      <c r="B205" s="1" t="s">
+      <c r="B207" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
-      <c r="B207" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
-      <c r="B208" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C208" t="s">
+      <c r="B210" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="1" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C211" t="s">
+      <c r="B213" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
-      <c r="B213" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
-      <c r="B218" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
-      <c r="B220" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
-      <c r="B222" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
-      <c r="B223" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
-      <c r="B224" s="1" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="2:3">
-      <c r="B225" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="2:3">
-      <c r="B226" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="227" spans="2:3">
-      <c r="B227" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="2:3">
-      <c r="B228" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="2:3">
-      <c r="B229" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="230" spans="2:3">
-      <c r="B230" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="232" spans="2:3">
-      <c r="B232" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="2:3">
-      <c r="B233" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" s="1" t="s">
+      <c r="B236" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="235" spans="2:3">
-      <c r="B235" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="2:3">
-      <c r="B236" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="237" spans="2:3">
-      <c r="B237" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C237" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="2:3">
-      <c r="B238" s="1" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="2:3">
-      <c r="B239" s="1" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="2:3">
-      <c r="B240" s="1" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="1" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="1" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="1" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="1" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="1" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="1" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="1" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="1" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="1" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="1" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="1" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="1" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="1" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
-      <c r="B256" s="1" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
-      <c r="B257" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
-      <c r="B258" s="1" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="1" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="1" t="s">
+      <c r="B267" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C268" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="B269" s="1" t="s">
+      <c r="B271" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="270" spans="2:3">
-      <c r="B270" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="271" spans="2:3">
-      <c r="B271" s="1" t="s">
+      <c r="B272" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="272" spans="2:3">
-      <c r="B272" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C272" t="s">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="273" spans="2:3">
-      <c r="B273" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C273" t="s">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="274" spans="2:3">
-      <c r="B274" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="275" spans="2:3">
-      <c r="B275" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="276" spans="2:3">
-      <c r="B276" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="277" spans="2:3">
-      <c r="B277" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="278" spans="2:3">
-      <c r="B278" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="279" spans="2:3">
-      <c r="B279" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="280" spans="2:3">
-      <c r="B280" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="281" spans="2:3">
-      <c r="B281" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="282" spans="2:3">
-      <c r="B282" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="283" spans="2:3">
-      <c r="B283" s="1" t="s">
+      <c r="B285" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="284" spans="2:3">
-      <c r="B284" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="285" spans="2:3">
-      <c r="B285" s="1" t="s">
+      <c r="B286" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="286" spans="2:3">
-      <c r="B286" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="287" spans="2:3">
-      <c r="B287" s="1" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C287" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="288" spans="2:3">
-      <c r="B288" s="1" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
-      <c r="B289" s="1" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="290" spans="2:3">
-      <c r="B290" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="291" spans="2:3">
-      <c r="B291" s="1" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="292" spans="2:3">
-      <c r="B292" s="1" t="s">
+      <c r="B294" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="293" spans="2:3">
-      <c r="B293" s="1" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="294" spans="2:3">
-      <c r="B294" s="1" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="295" spans="2:3">
-      <c r="B295" s="1" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="296" spans="2:3">
-      <c r="B296" s="1" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="297" spans="2:3">
-      <c r="B297" s="1" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="298" spans="2:3">
-      <c r="B298" s="1" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="299" spans="2:3">
-      <c r="B299" s="1" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="300" spans="2:3">
-      <c r="B300" s="1" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="301" spans="2:3">
-      <c r="B301" s="1" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="302" spans="2:3">
-      <c r="B302" s="1" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="303" spans="2:3">
-      <c r="B303" s="1" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="304" spans="2:3">
-      <c r="B304" s="1" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="1" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="1" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
-      <c r="B307" s="1" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="1" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="1" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="1" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="1" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" s="1" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="1" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
-      <c r="B314" s="1" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="1" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="1" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="1" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="1" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="1" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
-      <c r="B320" s="1" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="1" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="1" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="1" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="1" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="325" spans="2:2">
-      <c r="B325" s="1" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="326" spans="2:2">
-      <c r="B326" s="1" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
-      <c r="B327" s="1" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
-      <c r="B328" s="1" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="1" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
-      <c r="B330" s="1" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="1" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="1" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="1" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
-      <c r="B334" s="1" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="1" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="1" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
-      <c r="B337" s="1" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
-      <c r="B338" s="1" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="1" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
-      <c r="B340" s="1" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="1" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
-      <c r="B342" s="1" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
-      <c r="B343" s="1" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
-      <c r="B344" s="1" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="345" spans="2:2">
-      <c r="B345" s="1" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
-      <c r="B346" s="1" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
-      <c r="B347" s="1" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
-      <c r="B348" s="1" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
-      <c r="B349" s="1" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
-      <c r="B350" s="1" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
-      <c r="B351" s="1" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="1" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="1" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="1" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="1" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="1" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="1" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="1" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="1" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="1" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="1" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="1" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="1" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="1" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="1" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="1" t="s">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="1" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="1" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="369" spans="2:3">
-      <c r="B369" s="1" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="370" spans="2:3">
-      <c r="B370" s="1" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="371" spans="2:3">
-      <c r="B371" s="1" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="372" spans="2:3">
-      <c r="B372" s="1" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="373" spans="2:3">
-      <c r="B373" s="1" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="374" spans="2:3">
-      <c r="B374" s="1" t="s">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="375" spans="2:3">
-      <c r="B375" s="1" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="376" spans="2:3">
-      <c r="B376" s="1" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="377" spans="2:3">
-      <c r="B377" s="1" t="s">
+      <c r="B379" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="378" spans="2:3">
-      <c r="B378" s="1" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="379" spans="2:3">
-      <c r="B379" s="1" t="s">
+      <c r="B380" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="380" spans="2:3">
-      <c r="B380" s="1" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C380" t="s">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="381" spans="2:3">
-      <c r="B381" s="1" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C381" t="s">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="382" spans="2:3">
-      <c r="B382" s="1" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="383" spans="2:3">
-      <c r="B383" s="1" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="384" spans="2:3">
-      <c r="B384" s="1" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="1" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="1" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="1" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="1" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="1" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="1" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
-      <c r="B391" s="1" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
-      <c r="B392" s="1" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" s="1" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
-      <c r="B394" s="1" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
-      <c r="B395" s="1" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" s="1" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
-      <c r="B397" s="1" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
-      <c r="B398" s="1" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2">
-      <c r="B400" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2">
-      <c r="B401" s="1" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
-      <c r="B402" s="1" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="1" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="404" spans="2:2">
-      <c r="B404" s="1" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="405" spans="2:2">
-      <c r="B405" s="1" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
-      <c r="B406" s="1" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
-      <c r="B407" s="1" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
-      <c r="B408" s="1" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
-      <c r="B409" s="1" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
-      <c r="B410" s="1" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="411" spans="2:2">
-      <c r="B411" s="1" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
-      <c r="B412" s="1" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
-      <c r="B413" s="1" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
-      <c r="B414" s="1" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="415" spans="2:2">
-      <c r="B415" s="1" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="416" spans="2:2">
-      <c r="B416" s="1" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="1" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="1" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="419" spans="2:2">
-      <c r="B419" s="1" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="420" spans="2:2">
-      <c r="B420" s="1" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="1" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="1" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="1" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="424" spans="2:2">
-      <c r="B424" s="1" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="1" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="426" spans="2:2">
-      <c r="B426" s="1" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="427" spans="2:2">
-      <c r="B427" s="1" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="428" spans="2:2">
-      <c r="B428" s="1" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="429" spans="2:2">
-      <c r="B429" s="1" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="430" spans="2:2">
-      <c r="B430" s="1" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="431" spans="2:2">
-      <c r="B431" s="1" t="s">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="432" spans="2:2">
-      <c r="B432" s="1" t="s">
+    <row r="435" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="433" spans="2:3">
-      <c r="B433" s="1" t="s">
+      <c r="B435" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="434" spans="2:3">
-      <c r="B434" s="1" t="s">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="435" spans="2:3">
-      <c r="B435" s="1" t="s">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="436" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B436" s="1" t="s">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C436" s="5" t="s">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="437" spans="2:3">
-      <c r="B437" s="1" t="s">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="438" spans="2:3">
-      <c r="B438" s="1" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="2:3">
-      <c r="B439" s="1" t="s">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="440" spans="2:3">
-      <c r="B440" s="1" t="s">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="441" spans="2:3">
-      <c r="B441" s="1" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="442" spans="2:3">
-      <c r="B442" s="1" t="s">
+      <c r="B444" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="2:3">
-      <c r="B443" s="1" t="s">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="444" spans="2:3">
-      <c r="B444" s="1" t="s">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="445" spans="2:3">
-      <c r="B445" s="1" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C445" t="s">
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="2:3">
-      <c r="B446" s="1" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="447" spans="2:3">
-      <c r="B447" s="1" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="2:3">
-      <c r="B448" s="1" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="2:2">
-      <c r="B449" s="1" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="450" spans="2:2">
-      <c r="B450" s="1" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="1" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="452" spans="2:2">
-      <c r="B452" s="1" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="453" spans="2:2">
-      <c r="B453" s="1" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="454" spans="2:2">
-      <c r="B454" s="1" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="1" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="1" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="457" spans="2:2">
-      <c r="B457" s="1" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="458" spans="2:2">
-      <c r="B458" s="1" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="459" spans="2:2">
-      <c r="B459" s="1" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="1" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="1" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="462" spans="2:2">
-      <c r="B462" s="1" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="463" spans="2:2">
-      <c r="B463" s="1" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="464" spans="2:2">
-      <c r="B464" s="1" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="1" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="466" spans="2:2">
-      <c r="B466" s="1" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="467" spans="2:2">
-      <c r="B467" s="1" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="468" spans="2:2">
-      <c r="B468" s="1" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="1" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="470" spans="2:2">
-      <c r="B470" s="1" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="471" spans="2:2">
-      <c r="B471" s="1" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="1" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="1" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="474" spans="2:2">
-      <c r="B474" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="475" spans="2:2">
-      <c r="B475" s="1" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="1" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="477" spans="2:2">
-      <c r="B477" s="1" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="478" spans="2:2">
-      <c r="B478" s="1" t="s">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="479" spans="2:2">
-      <c r="B479" s="1" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="480" spans="2:2">
-      <c r="B480" s="1" t="s">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="481" spans="2:3">
-      <c r="B481" s="1" t="s">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="482" spans="2:3">
-      <c r="B482" s="1" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="483" spans="2:3">
-      <c r="B483" s="1" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="484" spans="2:3">
-      <c r="B484" s="1" t="s">
+      <c r="B486" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="485" spans="2:3">
-      <c r="B485" s="1" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="486" spans="2:3">
-      <c r="B486" s="1" t="s">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="487" spans="2:3">
-      <c r="B487" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C487" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="488" spans="2:3">
-      <c r="B488" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="489" spans="2:3">
-      <c r="B489" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B362" r:id="rId361" location="acceptance" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B380" r:id="rId379" xr:uid="{8D206DA2-B731-475F-BDAD-497BCF0B3C32}"/>
-    <hyperlink ref="B381" r:id="rId380" xr:uid="{A77A62DE-F6B5-42AA-A309-9F9100405C45}"/>
-    <hyperlink ref="B382" r:id="rId381" xr:uid="{C75FAAE9-74F9-4056-B599-522CA5EA13E0}"/>
-    <hyperlink ref="B383" r:id="rId382" xr:uid="{CD64A175-6D3C-4E2E-B8B5-076E58C4830F}"/>
-    <hyperlink ref="B384" r:id="rId383" xr:uid="{CD41836A-FC66-4198-BA32-3417D86E7485}"/>
-    <hyperlink ref="B385" r:id="rId384" xr:uid="{C7429C2D-0D91-4F5C-BC3B-51DD0912356E}"/>
-    <hyperlink ref="B386" r:id="rId385" xr:uid="{1558748D-50BF-4F15-BDB1-2AE850DDF07B}"/>
-    <hyperlink ref="B387" r:id="rId386" xr:uid="{0DBE627A-EDA7-47B2-AC76-97FCD3B4A386}"/>
-    <hyperlink ref="B388" r:id="rId387" xr:uid="{59825856-093B-4C04-AB65-B3AB15E01A0E}"/>
-    <hyperlink ref="B389" r:id="rId388" xr:uid="{6F55B26C-59A1-4076-BFEF-C80CACCEF101}"/>
-    <hyperlink ref="B390" r:id="rId389" xr:uid="{E592FF60-CBCF-4E11-BA2F-DC92500C4C43}"/>
-    <hyperlink ref="B391" r:id="rId390" xr:uid="{FC830FA4-84A7-4770-B5AE-0D515676B4A3}"/>
-    <hyperlink ref="B392" r:id="rId391" xr:uid="{734752E3-ABFE-4F97-9C5A-1AB2A3610CA7}"/>
-    <hyperlink ref="B393" r:id="rId392" xr:uid="{65579CB1-3D2D-4A67-90DD-84CD919EC5F2}"/>
-    <hyperlink ref="B394" r:id="rId393" xr:uid="{3701D2B1-4AC2-4013-A799-AF109667EEBC}"/>
-    <hyperlink ref="B395" r:id="rId394" xr:uid="{BFD4F37A-917C-4CBE-9322-17757607E0A9}"/>
-    <hyperlink ref="B396" r:id="rId395" xr:uid="{7FC918B3-0045-403B-A70F-8FC3FF3BD325}"/>
-    <hyperlink ref="B397" r:id="rId396" xr:uid="{AD788285-22A7-45D8-9BE8-14FDB4F160FB}"/>
-    <hyperlink ref="B398" r:id="rId397" xr:uid="{6EA1EEB1-8745-455B-8F12-471CD6788C16}"/>
-    <hyperlink ref="B399" r:id="rId398" xr:uid="{ECA5599D-F5A6-4917-87D8-52FCCCF2EB37}"/>
-    <hyperlink ref="B400" r:id="rId399" xr:uid="{4F9957E1-B5C6-4FC5-B047-EDFA10B521F1}"/>
-    <hyperlink ref="B401" r:id="rId400" xr:uid="{E78F94DD-7410-4679-B95E-0FAF81442B88}"/>
-    <hyperlink ref="B402" r:id="rId401" xr:uid="{87320B79-1E9D-4682-9513-35750D7E70EF}"/>
-    <hyperlink ref="B403" r:id="rId402" xr:uid="{CFBCCE30-CE94-43A9-9EB2-D1BB4C4C5985}"/>
-    <hyperlink ref="B404" r:id="rId403" xr:uid="{C86C464B-DABE-4C46-8434-FDC99E32487F}"/>
-    <hyperlink ref="B405" r:id="rId404" xr:uid="{A618560C-F56C-4848-BC7E-E37092913B28}"/>
-    <hyperlink ref="B406" r:id="rId405" xr:uid="{6DDC266D-DD72-425F-9B31-D50EB46A4B22}"/>
-    <hyperlink ref="B407" r:id="rId406" xr:uid="{DF3A4946-0628-4F3F-B1CF-303A6046E798}"/>
-    <hyperlink ref="B408" r:id="rId407" xr:uid="{FA9B561E-6BBC-48BF-B258-EE923DCCD34D}"/>
-    <hyperlink ref="B409" r:id="rId408" xr:uid="{A5E473FE-A9D4-49C6-9E64-5C9538A0FE23}"/>
-    <hyperlink ref="B410" r:id="rId409" xr:uid="{27C2F2F0-0F5A-4F2F-A1F2-378326AD269F}"/>
-    <hyperlink ref="B411" r:id="rId410" xr:uid="{E71C267C-A96E-4590-86F6-313AD601EC09}"/>
-    <hyperlink ref="B412" r:id="rId411" xr:uid="{C07323C1-41EA-4C70-A49B-24F3604E429E}"/>
-    <hyperlink ref="B413" r:id="rId412" xr:uid="{EF9E5D4B-DA57-468B-8E42-9A82D26676F7}"/>
-    <hyperlink ref="B414" r:id="rId413" xr:uid="{AD4A3AA8-8487-46F9-808F-36502CF72B0B}"/>
-    <hyperlink ref="B415" r:id="rId414" xr:uid="{B1E7AF69-9674-4314-8A7D-7DD63DCAA450}"/>
-    <hyperlink ref="B416" r:id="rId415" xr:uid="{2CB02FD6-3AAA-4363-971D-39B34E38EC53}"/>
-    <hyperlink ref="B417" r:id="rId416" xr:uid="{AD72CC83-CCB2-4B9B-8E01-D5FE7E8A3FD1}"/>
-    <hyperlink ref="B418" r:id="rId417" xr:uid="{A58E667A-F0E7-4523-8F1B-45162B70C0CD}"/>
-    <hyperlink ref="B419" r:id="rId418" xr:uid="{0D0D3A65-84A2-48D9-92B3-FB5E38EEAA58}"/>
-    <hyperlink ref="B420" r:id="rId419" xr:uid="{1EFD2C40-F9F4-4173-9AA1-A85A19B3215D}"/>
-    <hyperlink ref="B421" r:id="rId420" xr:uid="{CB0D1F35-6BFA-4406-B2DC-73FC59BDEB6A}"/>
-    <hyperlink ref="B422" r:id="rId421" xr:uid="{29BB526D-B0C9-42A8-B3A1-3860F5D36110}"/>
-    <hyperlink ref="B423" r:id="rId422" xr:uid="{DCE76B11-50C4-4D15-BD15-7643B6028785}"/>
-    <hyperlink ref="B424" r:id="rId423" xr:uid="{0C548368-BFF8-4615-8825-D822CB36F43F}"/>
-    <hyperlink ref="B425" r:id="rId424" xr:uid="{CC922CBD-0E50-484E-9236-BC5729E7F87D}"/>
-    <hyperlink ref="B426" r:id="rId425" xr:uid="{4AC3B395-29E6-4774-BB1F-DB55956FB94A}"/>
-    <hyperlink ref="B427" r:id="rId426" xr:uid="{B86C6869-2115-4695-9F6B-D53D0EA4BBC3}"/>
-    <hyperlink ref="B428" r:id="rId427" xr:uid="{48824E97-3394-43A4-A705-97E1191EB756}"/>
-    <hyperlink ref="B429" r:id="rId428" xr:uid="{77F85107-8597-41A5-AC61-8B73CCC6A3E4}"/>
-    <hyperlink ref="B430" r:id="rId429" xr:uid="{D5C09EFF-A2AA-4CB2-9588-2B4C3C231A20}"/>
-    <hyperlink ref="B431" r:id="rId430" xr:uid="{7896EDB3-0C7B-4B0F-B08B-DE64883C9590}"/>
-    <hyperlink ref="B432" r:id="rId431" xr:uid="{E752914C-E77A-4777-AD82-4093BA4E889B}"/>
-    <hyperlink ref="B433" r:id="rId432" xr:uid="{2898A6C5-ADA7-4C55-A050-B91471CA3B28}"/>
-    <hyperlink ref="B434" r:id="rId433" xr:uid="{D443C6CC-B7E0-47D4-B55B-DC8EF2391B97}"/>
-    <hyperlink ref="B435" r:id="rId434" xr:uid="{FA2665AD-6FD4-498F-A3BF-57BB5AF64E80}"/>
-    <hyperlink ref="B436" r:id="rId435" xr:uid="{0ED478ED-9FAD-499B-80FA-41DC85D2262F}"/>
-    <hyperlink ref="B437" r:id="rId436" xr:uid="{9E47B3B2-F21B-40CA-815D-F82CD06F2525}"/>
-    <hyperlink ref="B438" r:id="rId437" xr:uid="{70A91BD5-80E6-4B6F-BC21-D29F1A09E7C7}"/>
-    <hyperlink ref="B439" r:id="rId438" xr:uid="{B319FFC0-51DD-4714-86DC-0A0BBFAAC86E}"/>
-    <hyperlink ref="B440" r:id="rId439" xr:uid="{D420800F-95AA-411E-B716-8C8FDB0E57B8}"/>
-    <hyperlink ref="B441" r:id="rId440" xr:uid="{71BCB853-5EC1-4F22-9ECC-2AE77A8E8301}"/>
-    <hyperlink ref="B442" r:id="rId441" xr:uid="{E2D793AF-2857-4561-8181-45D6C5C520DD}"/>
-    <hyperlink ref="B443" r:id="rId442" xr:uid="{FC0551D3-A52A-452F-A2FF-B0E235A2FE3B}"/>
-    <hyperlink ref="B444" r:id="rId443" xr:uid="{DF5DB6A3-D9F6-4F04-90C8-B38111DBECF3}"/>
-    <hyperlink ref="B445" r:id="rId444" xr:uid="{1D9DA34D-84F0-4569-8636-063AAAAD8589}"/>
-    <hyperlink ref="B446" r:id="rId445" xr:uid="{41C4E772-3C23-48CB-A9CF-B1552C1DC980}"/>
-    <hyperlink ref="B447" r:id="rId446" xr:uid="{A72AC95B-1F1C-4A73-9092-382F5E48A761}"/>
-    <hyperlink ref="B448" r:id="rId447" xr:uid="{B16A6196-C872-45A5-8788-649466B492CC}"/>
-    <hyperlink ref="B449" r:id="rId448" xr:uid="{B19DDB7D-7946-4373-B970-016181140235}"/>
-    <hyperlink ref="B450" r:id="rId449" xr:uid="{CF0DAB6D-61FB-4D92-83DC-2D855D2EBE71}"/>
-    <hyperlink ref="B451" r:id="rId450" xr:uid="{80A2DB9F-6CF0-4563-B55C-E5E1A50373DC}"/>
-    <hyperlink ref="B452" r:id="rId451" xr:uid="{F5208B63-BF51-42EE-B32F-5E40F96B627C}"/>
-    <hyperlink ref="B453" r:id="rId452" xr:uid="{D9A1C32B-F709-4546-9613-217BF31F4EE7}"/>
-    <hyperlink ref="B454" r:id="rId453" xr:uid="{97E5178A-9931-488E-A327-054B227F1231}"/>
-    <hyperlink ref="B455" r:id="rId454" xr:uid="{9135261D-810B-4BA3-9AC7-03E5FD73D83E}"/>
-    <hyperlink ref="B456" r:id="rId455" xr:uid="{86CEEA0B-12FA-4D63-9003-389CCA2BF20D}"/>
-    <hyperlink ref="B457" r:id="rId456" xr:uid="{D9596E90-CA8F-42E2-88E3-D29BD62C7AF9}"/>
-    <hyperlink ref="B458" r:id="rId457" xr:uid="{B822BC85-A936-49A2-8D69-4BBF62D2607F}"/>
-    <hyperlink ref="B459" r:id="rId458" xr:uid="{E9908615-2FF2-4ACD-9EB6-E28770F60BB3}"/>
-    <hyperlink ref="B460" r:id="rId459" xr:uid="{38CAEF71-E8F6-4794-A168-4CDEC9B642C0}"/>
-    <hyperlink ref="B461" r:id="rId460" xr:uid="{633E5B62-D08B-40A1-A7E0-254C584CA088}"/>
-    <hyperlink ref="B462" r:id="rId461" xr:uid="{928FBCE6-006B-4A3E-8F4C-AF4768355674}"/>
-    <hyperlink ref="B463" r:id="rId462" xr:uid="{90DC0AA5-F4AF-4F07-A7A1-FC195F70A553}"/>
-    <hyperlink ref="B464" r:id="rId463" xr:uid="{F9F57A13-5BB6-499B-BBF2-384F3CD9B3E8}"/>
-    <hyperlink ref="B465" r:id="rId464" xr:uid="{B6806BA2-9825-4EF6-9649-AAB4303582D2}"/>
-    <hyperlink ref="B466" r:id="rId465" xr:uid="{53975EF5-C51C-4EE5-88E9-F94261E2D323}"/>
-    <hyperlink ref="B467" r:id="rId466" xr:uid="{3FBE2108-0C54-4E2B-8E19-1EC419B1496C}"/>
-    <hyperlink ref="B468" r:id="rId467" xr:uid="{95BED5E6-B332-4B89-89B1-EEAABEDFED78}"/>
-    <hyperlink ref="B469" r:id="rId468" xr:uid="{D3413E3D-9790-4617-8FCF-D893E59BCA8A}"/>
-    <hyperlink ref="B470" r:id="rId469" xr:uid="{5639DDE0-0C7C-47C4-90B8-AF023E3A18DB}"/>
-    <hyperlink ref="B471" r:id="rId470" xr:uid="{A1B2CD39-EDD0-4426-809A-B685D665CC7A}"/>
-    <hyperlink ref="B472" r:id="rId471" xr:uid="{A055ED1C-5514-4941-960E-B9CF3C375A26}"/>
-    <hyperlink ref="B473" r:id="rId472" xr:uid="{FB649C28-FACC-4F4D-857D-2EBAC97F18F2}"/>
-    <hyperlink ref="B474" r:id="rId473" xr:uid="{835F46B5-0DF2-4CEF-99A1-8D903910F0E6}"/>
-    <hyperlink ref="B475" r:id="rId474" xr:uid="{8D60FD33-2758-43DA-9D27-69EF4A66E103}"/>
-    <hyperlink ref="B476" r:id="rId475" xr:uid="{07183FC4-27E1-4E56-8521-BE91D86ACA0F}"/>
-    <hyperlink ref="B477" r:id="rId476" xr:uid="{6D4443A6-24AC-429B-8E58-B636201C2FA6}"/>
-    <hyperlink ref="B478" r:id="rId477" xr:uid="{9326BAC2-D293-4917-9C6D-912126699560}"/>
-    <hyperlink ref="B479" r:id="rId478" xr:uid="{105F5348-67C9-4608-B9CE-31BA38722BE7}"/>
-    <hyperlink ref="B480" r:id="rId479" xr:uid="{99C25419-7389-41A5-A3F4-C35486B911EF}"/>
-    <hyperlink ref="B481" r:id="rId480" xr:uid="{74C5752E-E2B2-4B1B-B7E6-9F7912798203}"/>
-    <hyperlink ref="B482" r:id="rId481" xr:uid="{AD23AF93-B847-4B7D-8025-DE2B3937B757}"/>
-    <hyperlink ref="B483" r:id="rId482" xr:uid="{E3D0875F-616A-4341-ABAB-233A310E0606}"/>
-    <hyperlink ref="B484" r:id="rId483" xr:uid="{1069AE90-6E6E-4FAB-AB8B-D1A14B86738A}"/>
-    <hyperlink ref="B485" r:id="rId484" xr:uid="{C525C2D1-32A1-423F-8EE0-B1548E051CB6}"/>
-    <hyperlink ref="B486" r:id="rId485" xr:uid="{9AA18115-52F8-4841-83E1-A20109F7B5B1}"/>
-    <hyperlink ref="B487" r:id="rId486" xr:uid="{3ACDCDCF-92BE-41BA-85EF-D1FEB5CDAD01}"/>
-    <hyperlink ref="B488" r:id="rId487" xr:uid="{EA76CBF4-AA9A-41D6-A3D9-AA216CD671FE}"/>
-    <hyperlink ref="B489" r:id="rId488" xr:uid="{2EDCB332-37B7-4BBA-9795-00FF10DC0AD5}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A81" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A144" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A184" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A240" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A241" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="A243" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="A268" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="A269" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="A270" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A271" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="A272" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="A273" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="A274" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="A275" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="A276" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="A277" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="A278" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="A279" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="A280" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A281" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="A282" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="A283" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="A284" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="A285" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="A286" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="A287" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="A288" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="A289" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="A290" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A291" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="A292" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="A293" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="A294" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="A295" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="A296" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="A297" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="A298" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="A299" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="A300" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="A301" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="A302" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="A303" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="A304" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="A305" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="A306" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="A307" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="A308" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="A309" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="A310" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="A311" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="A312" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="A313" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="A314" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="A315" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="A316" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="A317" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="A318" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="A319" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="A320" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="A321" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="A322" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="A323" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="A324" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="A325" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="A326" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="A327" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="A328" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="A329" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="A330" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="A331" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="A332" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="A333" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="A334" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="A335" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="A336" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="A337" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="A338" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="A339" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="A340" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="A341" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="A342" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="A343" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="A344" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="A345" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="A346" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="A347" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="A348" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="A349" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="A350" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="A351" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="A352" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="A353" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="A354" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="A355" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="A356" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="A357" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="A358" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="A359" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="A360" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="A361" r:id="rId361" location="acceptance" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="A362" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="A363" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="A364" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="A365" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="A366" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="A367" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="A368" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="A369" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="A370" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="A371" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="A372" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="A373" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="A374" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="A375" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="A376" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="A377" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="A378" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A379" r:id="rId379" xr:uid="{8D206DA2-B731-475F-BDAD-497BCF0B3C32}"/>
+    <hyperlink ref="A380" r:id="rId380" xr:uid="{A77A62DE-F6B5-42AA-A309-9F9100405C45}"/>
+    <hyperlink ref="A381" r:id="rId381" xr:uid="{C75FAAE9-74F9-4056-B599-522CA5EA13E0}"/>
+    <hyperlink ref="A382" r:id="rId382" xr:uid="{CD64A175-6D3C-4E2E-B8B5-076E58C4830F}"/>
+    <hyperlink ref="A383" r:id="rId383" xr:uid="{CD41836A-FC66-4198-BA32-3417D86E7485}"/>
+    <hyperlink ref="A384" r:id="rId384" xr:uid="{C7429C2D-0D91-4F5C-BC3B-51DD0912356E}"/>
+    <hyperlink ref="A385" r:id="rId385" xr:uid="{1558748D-50BF-4F15-BDB1-2AE850DDF07B}"/>
+    <hyperlink ref="A386" r:id="rId386" xr:uid="{0DBE627A-EDA7-47B2-AC76-97FCD3B4A386}"/>
+    <hyperlink ref="A387" r:id="rId387" xr:uid="{59825856-093B-4C04-AB65-B3AB15E01A0E}"/>
+    <hyperlink ref="A388" r:id="rId388" xr:uid="{6F55B26C-59A1-4076-BFEF-C80CACCEF101}"/>
+    <hyperlink ref="A389" r:id="rId389" xr:uid="{E592FF60-CBCF-4E11-BA2F-DC92500C4C43}"/>
+    <hyperlink ref="A390" r:id="rId390" xr:uid="{FC830FA4-84A7-4770-B5AE-0D515676B4A3}"/>
+    <hyperlink ref="A391" r:id="rId391" xr:uid="{734752E3-ABFE-4F97-9C5A-1AB2A3610CA7}"/>
+    <hyperlink ref="A392" r:id="rId392" xr:uid="{65579CB1-3D2D-4A67-90DD-84CD919EC5F2}"/>
+    <hyperlink ref="A393" r:id="rId393" xr:uid="{3701D2B1-4AC2-4013-A799-AF109667EEBC}"/>
+    <hyperlink ref="A394" r:id="rId394" xr:uid="{BFD4F37A-917C-4CBE-9322-17757607E0A9}"/>
+    <hyperlink ref="A395" r:id="rId395" xr:uid="{7FC918B3-0045-403B-A70F-8FC3FF3BD325}"/>
+    <hyperlink ref="A396" r:id="rId396" xr:uid="{AD788285-22A7-45D8-9BE8-14FDB4F160FB}"/>
+    <hyperlink ref="A397" r:id="rId397" xr:uid="{6EA1EEB1-8745-455B-8F12-471CD6788C16}"/>
+    <hyperlink ref="A398" r:id="rId398" xr:uid="{ECA5599D-F5A6-4917-87D8-52FCCCF2EB37}"/>
+    <hyperlink ref="A399" r:id="rId399" xr:uid="{4F9957E1-B5C6-4FC5-B047-EDFA10B521F1}"/>
+    <hyperlink ref="A400" r:id="rId400" xr:uid="{E78F94DD-7410-4679-B95E-0FAF81442B88}"/>
+    <hyperlink ref="A401" r:id="rId401" xr:uid="{87320B79-1E9D-4682-9513-35750D7E70EF}"/>
+    <hyperlink ref="A402" r:id="rId402" xr:uid="{CFBCCE30-CE94-43A9-9EB2-D1BB4C4C5985}"/>
+    <hyperlink ref="A403" r:id="rId403" xr:uid="{C86C464B-DABE-4C46-8434-FDC99E32487F}"/>
+    <hyperlink ref="A404" r:id="rId404" xr:uid="{A618560C-F56C-4848-BC7E-E37092913B28}"/>
+    <hyperlink ref="A405" r:id="rId405" xr:uid="{6DDC266D-DD72-425F-9B31-D50EB46A4B22}"/>
+    <hyperlink ref="A406" r:id="rId406" xr:uid="{DF3A4946-0628-4F3F-B1CF-303A6046E798}"/>
+    <hyperlink ref="A407" r:id="rId407" xr:uid="{FA9B561E-6BBC-48BF-B258-EE923DCCD34D}"/>
+    <hyperlink ref="A408" r:id="rId408" xr:uid="{A5E473FE-A9D4-49C6-9E64-5C9538A0FE23}"/>
+    <hyperlink ref="A409" r:id="rId409" xr:uid="{27C2F2F0-0F5A-4F2F-A1F2-378326AD269F}"/>
+    <hyperlink ref="A410" r:id="rId410" xr:uid="{E71C267C-A96E-4590-86F6-313AD601EC09}"/>
+    <hyperlink ref="A411" r:id="rId411" xr:uid="{C07323C1-41EA-4C70-A49B-24F3604E429E}"/>
+    <hyperlink ref="A412" r:id="rId412" xr:uid="{EF9E5D4B-DA57-468B-8E42-9A82D26676F7}"/>
+    <hyperlink ref="A413" r:id="rId413" xr:uid="{AD4A3AA8-8487-46F9-808F-36502CF72B0B}"/>
+    <hyperlink ref="A414" r:id="rId414" xr:uid="{B1E7AF69-9674-4314-8A7D-7DD63DCAA450}"/>
+    <hyperlink ref="A415" r:id="rId415" xr:uid="{2CB02FD6-3AAA-4363-971D-39B34E38EC53}"/>
+    <hyperlink ref="A416" r:id="rId416" xr:uid="{AD72CC83-CCB2-4B9B-8E01-D5FE7E8A3FD1}"/>
+    <hyperlink ref="A417" r:id="rId417" xr:uid="{A58E667A-F0E7-4523-8F1B-45162B70C0CD}"/>
+    <hyperlink ref="A418" r:id="rId418" xr:uid="{0D0D3A65-84A2-48D9-92B3-FB5E38EEAA58}"/>
+    <hyperlink ref="A419" r:id="rId419" xr:uid="{1EFD2C40-F9F4-4173-9AA1-A85A19B3215D}"/>
+    <hyperlink ref="A420" r:id="rId420" xr:uid="{CB0D1F35-6BFA-4406-B2DC-73FC59BDEB6A}"/>
+    <hyperlink ref="A421" r:id="rId421" xr:uid="{29BB526D-B0C9-42A8-B3A1-3860F5D36110}"/>
+    <hyperlink ref="A422" r:id="rId422" xr:uid="{DCE76B11-50C4-4D15-BD15-7643B6028785}"/>
+    <hyperlink ref="A423" r:id="rId423" xr:uid="{0C548368-BFF8-4615-8825-D822CB36F43F}"/>
+    <hyperlink ref="A424" r:id="rId424" xr:uid="{CC922CBD-0E50-484E-9236-BC5729E7F87D}"/>
+    <hyperlink ref="A425" r:id="rId425" xr:uid="{4AC3B395-29E6-4774-BB1F-DB55956FB94A}"/>
+    <hyperlink ref="A426" r:id="rId426" xr:uid="{B86C6869-2115-4695-9F6B-D53D0EA4BBC3}"/>
+    <hyperlink ref="A427" r:id="rId427" xr:uid="{48824E97-3394-43A4-A705-97E1191EB756}"/>
+    <hyperlink ref="A428" r:id="rId428" xr:uid="{77F85107-8597-41A5-AC61-8B73CCC6A3E4}"/>
+    <hyperlink ref="A429" r:id="rId429" xr:uid="{D5C09EFF-A2AA-4CB2-9588-2B4C3C231A20}"/>
+    <hyperlink ref="A430" r:id="rId430" xr:uid="{7896EDB3-0C7B-4B0F-B08B-DE64883C9590}"/>
+    <hyperlink ref="A431" r:id="rId431" xr:uid="{E752914C-E77A-4777-AD82-4093BA4E889B}"/>
+    <hyperlink ref="A432" r:id="rId432" xr:uid="{2898A6C5-ADA7-4C55-A050-B91471CA3B28}"/>
+    <hyperlink ref="A433" r:id="rId433" xr:uid="{D443C6CC-B7E0-47D4-B55B-DC8EF2391B97}"/>
+    <hyperlink ref="A434" r:id="rId434" xr:uid="{FA2665AD-6FD4-498F-A3BF-57BB5AF64E80}"/>
+    <hyperlink ref="A435" r:id="rId435" xr:uid="{0ED478ED-9FAD-499B-80FA-41DC85D2262F}"/>
+    <hyperlink ref="A436" r:id="rId436" xr:uid="{9E47B3B2-F21B-40CA-815D-F82CD06F2525}"/>
+    <hyperlink ref="A437" r:id="rId437" xr:uid="{70A91BD5-80E6-4B6F-BC21-D29F1A09E7C7}"/>
+    <hyperlink ref="A438" r:id="rId438" xr:uid="{B319FFC0-51DD-4714-86DC-0A0BBFAAC86E}"/>
+    <hyperlink ref="A439" r:id="rId439" xr:uid="{D420800F-95AA-411E-B716-8C8FDB0E57B8}"/>
+    <hyperlink ref="A440" r:id="rId440" xr:uid="{71BCB853-5EC1-4F22-9ECC-2AE77A8E8301}"/>
+    <hyperlink ref="A441" r:id="rId441" xr:uid="{E2D793AF-2857-4561-8181-45D6C5C520DD}"/>
+    <hyperlink ref="A442" r:id="rId442" xr:uid="{FC0551D3-A52A-452F-A2FF-B0E235A2FE3B}"/>
+    <hyperlink ref="A443" r:id="rId443" xr:uid="{DF5DB6A3-D9F6-4F04-90C8-B38111DBECF3}"/>
+    <hyperlink ref="A444" r:id="rId444" xr:uid="{1D9DA34D-84F0-4569-8636-063AAAAD8589}"/>
+    <hyperlink ref="A445" r:id="rId445" xr:uid="{41C4E772-3C23-48CB-A9CF-B1552C1DC980}"/>
+    <hyperlink ref="A446" r:id="rId446" xr:uid="{A72AC95B-1F1C-4A73-9092-382F5E48A761}"/>
+    <hyperlink ref="A447" r:id="rId447" xr:uid="{B16A6196-C872-45A5-8788-649466B492CC}"/>
+    <hyperlink ref="A448" r:id="rId448" xr:uid="{B19DDB7D-7946-4373-B970-016181140235}"/>
+    <hyperlink ref="A449" r:id="rId449" xr:uid="{CF0DAB6D-61FB-4D92-83DC-2D855D2EBE71}"/>
+    <hyperlink ref="A450" r:id="rId450" xr:uid="{80A2DB9F-6CF0-4563-B55C-E5E1A50373DC}"/>
+    <hyperlink ref="A451" r:id="rId451" xr:uid="{F5208B63-BF51-42EE-B32F-5E40F96B627C}"/>
+    <hyperlink ref="A452" r:id="rId452" xr:uid="{D9A1C32B-F709-4546-9613-217BF31F4EE7}"/>
+    <hyperlink ref="A453" r:id="rId453" xr:uid="{97E5178A-9931-488E-A327-054B227F1231}"/>
+    <hyperlink ref="A454" r:id="rId454" xr:uid="{9135261D-810B-4BA3-9AC7-03E5FD73D83E}"/>
+    <hyperlink ref="A455" r:id="rId455" xr:uid="{86CEEA0B-12FA-4D63-9003-389CCA2BF20D}"/>
+    <hyperlink ref="A456" r:id="rId456" xr:uid="{D9596E90-CA8F-42E2-88E3-D29BD62C7AF9}"/>
+    <hyperlink ref="A457" r:id="rId457" xr:uid="{B822BC85-A936-49A2-8D69-4BBF62D2607F}"/>
+    <hyperlink ref="A458" r:id="rId458" xr:uid="{E9908615-2FF2-4ACD-9EB6-E28770F60BB3}"/>
+    <hyperlink ref="A459" r:id="rId459" xr:uid="{38CAEF71-E8F6-4794-A168-4CDEC9B642C0}"/>
+    <hyperlink ref="A460" r:id="rId460" xr:uid="{633E5B62-D08B-40A1-A7E0-254C584CA088}"/>
+    <hyperlink ref="A461" r:id="rId461" xr:uid="{928FBCE6-006B-4A3E-8F4C-AF4768355674}"/>
+    <hyperlink ref="A462" r:id="rId462" xr:uid="{90DC0AA5-F4AF-4F07-A7A1-FC195F70A553}"/>
+    <hyperlink ref="A463" r:id="rId463" xr:uid="{F9F57A13-5BB6-499B-BBF2-384F3CD9B3E8}"/>
+    <hyperlink ref="A464" r:id="rId464" xr:uid="{B6806BA2-9825-4EF6-9649-AAB4303582D2}"/>
+    <hyperlink ref="A465" r:id="rId465" xr:uid="{53975EF5-C51C-4EE5-88E9-F94261E2D323}"/>
+    <hyperlink ref="A466" r:id="rId466" xr:uid="{3FBE2108-0C54-4E2B-8E19-1EC419B1496C}"/>
+    <hyperlink ref="A467" r:id="rId467" xr:uid="{95BED5E6-B332-4B89-89B1-EEAABEDFED78}"/>
+    <hyperlink ref="A468" r:id="rId468" xr:uid="{D3413E3D-9790-4617-8FCF-D893E59BCA8A}"/>
+    <hyperlink ref="A469" r:id="rId469" xr:uid="{5639DDE0-0C7C-47C4-90B8-AF023E3A18DB}"/>
+    <hyperlink ref="A470" r:id="rId470" xr:uid="{A1B2CD39-EDD0-4426-809A-B685D665CC7A}"/>
+    <hyperlink ref="A471" r:id="rId471" xr:uid="{A055ED1C-5514-4941-960E-B9CF3C375A26}"/>
+    <hyperlink ref="A472" r:id="rId472" xr:uid="{FB649C28-FACC-4F4D-857D-2EBAC97F18F2}"/>
+    <hyperlink ref="A473" r:id="rId473" xr:uid="{835F46B5-0DF2-4CEF-99A1-8D903910F0E6}"/>
+    <hyperlink ref="A474" r:id="rId474" xr:uid="{8D60FD33-2758-43DA-9D27-69EF4A66E103}"/>
+    <hyperlink ref="A475" r:id="rId475" xr:uid="{07183FC4-27E1-4E56-8521-BE91D86ACA0F}"/>
+    <hyperlink ref="A476" r:id="rId476" xr:uid="{6D4443A6-24AC-429B-8E58-B636201C2FA6}"/>
+    <hyperlink ref="A477" r:id="rId477" xr:uid="{9326BAC2-D293-4917-9C6D-912126699560}"/>
+    <hyperlink ref="A478" r:id="rId478" xr:uid="{105F5348-67C9-4608-B9CE-31BA38722BE7}"/>
+    <hyperlink ref="A479" r:id="rId479" xr:uid="{99C25419-7389-41A5-A3F4-C35486B911EF}"/>
+    <hyperlink ref="A480" r:id="rId480" xr:uid="{74C5752E-E2B2-4B1B-B7E6-9F7912798203}"/>
+    <hyperlink ref="A481" r:id="rId481" xr:uid="{AD23AF93-B847-4B7D-8025-DE2B3937B757}"/>
+    <hyperlink ref="A482" r:id="rId482" xr:uid="{E3D0875F-616A-4341-ABAB-233A310E0606}"/>
+    <hyperlink ref="A483" r:id="rId483" xr:uid="{1069AE90-6E6E-4FAB-AB8B-D1A14B86738A}"/>
+    <hyperlink ref="A484" r:id="rId484" xr:uid="{C525C2D1-32A1-423F-8EE0-B1548E051CB6}"/>
+    <hyperlink ref="A485" r:id="rId485" xr:uid="{9AA18115-52F8-4841-83E1-A20109F7B5B1}"/>
+    <hyperlink ref="A486" r:id="rId486" xr:uid="{3ACDCDCF-92BE-41BA-85EF-D1FEB5CDAD01}"/>
+    <hyperlink ref="A487" r:id="rId487" xr:uid="{EA76CBF4-AA9A-41D6-A3D9-AA216CD671FE}"/>
+    <hyperlink ref="A488" r:id="rId488" xr:uid="{2EDCB332-37B7-4BBA-9795-00FF10DC0AD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6589,2629 +6564,2612 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="B401" sqref="B401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
+      <c r="B6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
+      <c r="B10" t="s">
         <v>564</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
+      <c r="B11" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
+      <c r="B15" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B19" t="s">
         <v>579</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+      <c r="B20" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+      <c r="B22" t="s">
         <v>584</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
+      <c r="B23" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
+      <c r="B27" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B30" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1" t="s">
+      <c r="B31" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1" t="s">
+      <c r="B36" t="s">
         <v>607</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
+      <c r="B37" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+      <c r="B46" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1" t="s">
+      <c r="B47" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+      <c r="B64" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B67" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="B70" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="1" t="s">
+      <c r="B78" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="1" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="1" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="1" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="1" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="1" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="1" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="1" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="1" t="s">
+      <c r="B107" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="1" t="s">
+      <c r="B118" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="1" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="1" t="s">
+      <c r="B133" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="1" t="s">
+      <c r="B135" t="s">
         <v>721</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C136" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="1" t="s">
+      <c r="B139" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="1" t="s">
+      <c r="B149" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="1" t="s">
+      <c r="B150" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C152" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B155" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B158" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B161" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C162" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
-      <c r="B163" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
-      <c r="B164" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="166" spans="2:3">
-      <c r="B166" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
-      <c r="B167" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
-      <c r="B168" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
-      <c r="B169" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="170" spans="2:3">
-      <c r="B170" s="1" t="s">
+      <c r="B172" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="171" spans="2:3">
-      <c r="B171" s="1" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
-      <c r="B173" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="174" spans="2:3">
-      <c r="B174" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="175" spans="2:3">
-      <c r="B175" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="1" t="s">
+      <c r="B179" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="1" t="s">
+      <c r="B180" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
-      <c r="B181" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="2:3">
-      <c r="B182" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
-      <c r="B184" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
-      <c r="B186" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="187" spans="2:3">
-      <c r="B187" s="1" t="s">
+      <c r="B189" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="188" spans="2:3">
-      <c r="B188" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="190" spans="2:3">
-      <c r="B190" s="1" t="s">
+      <c r="B191" t="s">
         <v>790</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="191" spans="2:3">
-      <c r="B191" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
-      <c r="B192" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
-      <c r="B193" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="194" spans="2:3">
-      <c r="B194" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
-      <c r="B195" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
-      <c r="B196" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="197" spans="2:3">
-      <c r="B197" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="198" spans="2:3">
-      <c r="B198" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="199" spans="2:3">
-      <c r="B199" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="200" spans="2:3">
-      <c r="B200" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="201" spans="2:3">
-      <c r="B201" s="1" t="s">
+      <c r="B203" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="202" spans="2:3">
-      <c r="B202" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="203" spans="2:3">
-      <c r="B203" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
-      <c r="B204" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="205" spans="2:3">
-      <c r="B205" s="1" t="s">
+      <c r="B207" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
-      <c r="B207" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
-      <c r="B208" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="1" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="1" t="s">
+      <c r="B212" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" s="1" t="s">
+      <c r="B214" t="s">
         <v>817</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
-      <c r="B218" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
-      <c r="B220" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
-      <c r="B222" s="1" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
-      <c r="B223" s="1" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
-      <c r="B224" s="1" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="1" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="1" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="1" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="1" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="1" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="1" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="1" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="1" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="1" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="1" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="1" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="1" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="1" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="241" spans="2:3">
-      <c r="B241" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="242" spans="2:3">
-      <c r="B242" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="243" spans="2:3">
-      <c r="B243" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="B244" s="1" t="s">
+      <c r="B246" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="245" spans="2:3">
-      <c r="B245" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="246" spans="2:3">
-      <c r="B246" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
-      <c r="B247" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="248" spans="2:3">
-      <c r="B248" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
-      <c r="B249" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="250" spans="2:3">
-      <c r="B250" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="1" t="s">
+      <c r="B253" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C254" t="s">
+      <c r="B256" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="1" t="s">
+      <c r="B257" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
-      <c r="B257" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C257" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
-      <c r="B258" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C258" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="1" t="s">
+      <c r="B261" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C262" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="1" t="s">
+      <c r="B265" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="1" t="s">
+      <c r="B267" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C266" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="1" t="s">
+      <c r="B269" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C268" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="B269" s="1" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="270" spans="2:3">
-      <c r="B270" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C270" t="s">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="271" spans="2:3">
-      <c r="B271" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="272" spans="2:3">
-      <c r="B272" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="273" spans="2:3">
-      <c r="B273" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="2:3">
-      <c r="B274" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="275" spans="2:3">
-      <c r="B275" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="276" spans="2:3">
-      <c r="B276" s="1" t="s">
+      <c r="B278" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="277" spans="2:3">
-      <c r="B277" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="278" spans="2:3">
-      <c r="B278" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="279" spans="2:3">
-      <c r="B279" s="1" t="s">
+      <c r="B280" t="s">
         <v>892</v>
       </c>
-      <c r="C279" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="280" spans="2:3">
-      <c r="B280" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="281" spans="2:3">
-      <c r="B281" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C281" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="282" spans="2:3">
-      <c r="B282" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="283" spans="2:3">
-      <c r="B283" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="284" spans="2:3">
-      <c r="B284" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="285" spans="2:3">
-      <c r="B285" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="286" spans="2:3">
-      <c r="B286" s="1" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="287" spans="2:3">
-      <c r="B287" s="1" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="288" spans="2:3">
-      <c r="B288" s="1" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
-      <c r="B289" s="1" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="290" spans="2:3">
-      <c r="B290" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="291" spans="2:3">
-      <c r="B291" s="1" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="2:3">
-      <c r="B292" s="1" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="2:3">
-      <c r="B293" s="1" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="294" spans="2:3">
-      <c r="B294" s="1" t="s">
+      <c r="B296" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="295" spans="2:3">
-      <c r="B295" s="1" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="296" spans="2:3">
-      <c r="B296" s="1" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="297" spans="2:3">
-      <c r="B297" s="1" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C297" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3">
-      <c r="B298" s="1" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="299" spans="2:3">
-      <c r="B299" s="1" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="300" spans="2:3">
-      <c r="B300" s="1" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="301" spans="2:3">
-      <c r="B301" s="1" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="302" spans="2:3">
-      <c r="B302" s="1" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="303" spans="2:3">
-      <c r="B303" s="1" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="304" spans="2:3">
-      <c r="B304" s="1" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="1" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="1" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
-      <c r="B307" s="1" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="1" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="1" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="1" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="1" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" s="1" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="1" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
-      <c r="B314" s="1" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="1" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="1" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="1" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="1" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="1" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
-      <c r="B320" s="1" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="1" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="1" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="1" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="1" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="325" spans="2:2">
-      <c r="B325" s="1" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="326" spans="2:2">
-      <c r="B326" s="1" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
-      <c r="B327" s="1" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
-      <c r="B328" s="1" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="1" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
-      <c r="B330" s="1" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="1" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="1" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="1" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
-      <c r="B334" s="1" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="1" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="1" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="337" spans="2:3">
-      <c r="B337" s="1" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="338" spans="2:3">
-      <c r="B338" s="1" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="339" spans="2:3">
-      <c r="B339" s="1" t="s">
+      <c r="B341" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="340" spans="2:3">
-      <c r="B340" s="1" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="341" spans="2:3">
-      <c r="B341" s="1" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="342" spans="2:3">
-      <c r="B342" s="1" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C342" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="343" spans="2:3">
-      <c r="B343" s="1" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="344" spans="2:3">
-      <c r="B344" s="1" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="345" spans="2:3">
-      <c r="B345" s="1" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="346" spans="2:3">
-      <c r="B346" s="1" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="347" spans="2:3">
-      <c r="B347" s="1" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="348" spans="2:3">
-      <c r="B348" s="1" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="349" spans="2:3">
-      <c r="B349" s="1" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="350" spans="2:3">
-      <c r="B350" s="1" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="351" spans="2:3">
-      <c r="B351" s="1" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="352" spans="2:3">
-      <c r="B352" s="1" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="1" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="1" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="1" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="1" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="1" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="1" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="1" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="1" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="1" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="1" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="1" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="1" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="1" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="1" t="s">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="1" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="1" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="369" spans="2:3">
-      <c r="B369" s="1" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="370" spans="2:3">
-      <c r="B370" s="1" t="s">
+      <c r="B372" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="371" spans="2:3">
-      <c r="B371" s="1" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="372" spans="2:3">
-      <c r="B372" s="1" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="373" spans="2:3">
-      <c r="B373" s="1" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C373" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="374" spans="2:3">
-      <c r="B374" s="1" t="s">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="375" spans="2:3">
-      <c r="B375" s="1" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="376" spans="2:3">
-      <c r="B376" s="1" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="377" spans="2:3">
-      <c r="B377" s="1" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="378" spans="2:3">
-      <c r="B378" s="1" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="379" spans="2:3">
-      <c r="B379" s="1" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="380" spans="2:3">
-      <c r="B380" s="1" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="381" spans="2:3">
-      <c r="B381" s="1" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="382" spans="2:3">
-      <c r="B382" s="1" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="383" spans="2:3">
-      <c r="B383" s="1" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="384" spans="2:3">
-      <c r="B384" s="1" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="1" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="1" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="1" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="1" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="1" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="1" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
-      <c r="B391" s="1" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
-      <c r="B392" s="1" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" s="1" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
-      <c r="B394" s="1" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
-      <c r="B395" s="1" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" s="1" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>1012</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2">
-      <c r="B397" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2">
-      <c r="B398" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2">
-      <c r="B400" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId255" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId256" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId266" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId271" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId272" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId281" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId282" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId287" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId288" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId298" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
-    <hyperlink ref="B302" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
-    <hyperlink ref="B303" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
-    <hyperlink ref="B304" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
-    <hyperlink ref="B305" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
-    <hyperlink ref="B306" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
-    <hyperlink ref="B307" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
-    <hyperlink ref="B308" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
-    <hyperlink ref="B309" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
-    <hyperlink ref="B310" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
-    <hyperlink ref="B311" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
-    <hyperlink ref="B312" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
-    <hyperlink ref="B313" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
-    <hyperlink ref="B314" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
-    <hyperlink ref="B315" r:id="rId314" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="B316" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
-    <hyperlink ref="B317" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="B318" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
-    <hyperlink ref="B319" r:id="rId318" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
-    <hyperlink ref="B320" r:id="rId319" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
-    <hyperlink ref="B321" r:id="rId320" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
-    <hyperlink ref="B322" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
-    <hyperlink ref="B323" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
-    <hyperlink ref="B324" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
-    <hyperlink ref="B325" r:id="rId324" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
-    <hyperlink ref="B326" r:id="rId325" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
-    <hyperlink ref="B327" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
-    <hyperlink ref="B328" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
-    <hyperlink ref="B329" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
-    <hyperlink ref="B330" r:id="rId329" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
-    <hyperlink ref="B331" r:id="rId330" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
-    <hyperlink ref="B332" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
-    <hyperlink ref="B333" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
-    <hyperlink ref="B334" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
-    <hyperlink ref="B335" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
-    <hyperlink ref="B336" r:id="rId335" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
-    <hyperlink ref="B337" r:id="rId336" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
-    <hyperlink ref="B338" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
-    <hyperlink ref="B339" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
-    <hyperlink ref="B340" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
-    <hyperlink ref="B341" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
-    <hyperlink ref="B342" r:id="rId341" xr:uid="{348DA2AE-3FCB-41B3-B3B7-4F37B8C82597}"/>
-    <hyperlink ref="B343" r:id="rId342" xr:uid="{08FDCA7F-F9DB-40E3-AD11-1943AC877926}"/>
-    <hyperlink ref="B344" r:id="rId343" xr:uid="{0CC44A34-EA19-4CC6-BCC5-3AE11AB0EF1A}"/>
-    <hyperlink ref="B345" r:id="rId344" xr:uid="{93728EA0-C0C4-4D6B-9F66-7E5373C9321B}"/>
-    <hyperlink ref="B346" r:id="rId345" xr:uid="{635DAA35-4CB8-4A8B-A852-E098FD319FE8}"/>
-    <hyperlink ref="B347" r:id="rId346" xr:uid="{A623368D-2E9E-4FA9-B7F2-0EBD2B814DC7}"/>
-    <hyperlink ref="B348" r:id="rId347" xr:uid="{C578FCDC-7AE5-413B-A1D7-FD5D43F318FC}"/>
-    <hyperlink ref="B349" r:id="rId348" xr:uid="{B96179F8-8789-41C3-8461-82901AB4C21C}"/>
-    <hyperlink ref="B350" r:id="rId349" xr:uid="{170B9823-6D75-44CF-B219-0ECB9F3C51EA}"/>
-    <hyperlink ref="B351" r:id="rId350" xr:uid="{D602B0FE-CCCE-40E5-BEA0-3F274AA4A977}"/>
-    <hyperlink ref="B352" r:id="rId351" xr:uid="{FB967B59-D819-4F17-9CCD-F9DFBDFC4B90}"/>
-    <hyperlink ref="B353" r:id="rId352" xr:uid="{D30C8031-BD8B-4461-9158-08BCE73962F9}"/>
-    <hyperlink ref="B354" r:id="rId353" xr:uid="{9414AF50-80CE-4467-9A2B-680D775D70CB}"/>
-    <hyperlink ref="B355" r:id="rId354" xr:uid="{261A157E-0579-455C-A146-550219888222}"/>
-    <hyperlink ref="B356" r:id="rId355" xr:uid="{45191674-6622-42BE-9B4C-FC53485A11B0}"/>
-    <hyperlink ref="B357" r:id="rId356" xr:uid="{9878737A-5A4A-419B-A2E5-C5588C8A1745}"/>
-    <hyperlink ref="B358" r:id="rId357" xr:uid="{0C8D65FA-B447-4953-9111-29D2337889C7}"/>
-    <hyperlink ref="B359" r:id="rId358" xr:uid="{676B4017-99C5-4B81-AEB4-18F71A7F16FD}"/>
-    <hyperlink ref="B360" r:id="rId359" xr:uid="{0C8579A7-5BD2-4ABF-A166-68A675FE7F51}"/>
-    <hyperlink ref="B361" r:id="rId360" xr:uid="{AA1BFDE2-EFE2-4903-8E20-6F9145B8181D}"/>
-    <hyperlink ref="B362" r:id="rId361" xr:uid="{75C1C959-2731-4E30-82FC-39943867EBAF}"/>
-    <hyperlink ref="B363" r:id="rId362" xr:uid="{A664108D-8ECD-49AE-916F-F8DAB08BD6D9}"/>
-    <hyperlink ref="B364" r:id="rId363" xr:uid="{7886D445-A440-4114-91F9-27861945E03C}"/>
-    <hyperlink ref="B365" r:id="rId364" xr:uid="{096F52C1-1D72-453A-AEA4-40E88DFFF11A}"/>
-    <hyperlink ref="B366" r:id="rId365" xr:uid="{D07DE125-9D1F-48FB-ABAB-BA1D5B94A60C}"/>
-    <hyperlink ref="B367" r:id="rId366" xr:uid="{5E7BA8ED-2755-4435-9211-590ACB4C6A47}"/>
-    <hyperlink ref="B368" r:id="rId367" xr:uid="{3406C323-6F85-4BCF-B943-7BB8387F3372}"/>
-    <hyperlink ref="B369" r:id="rId368" xr:uid="{B6557699-28AB-4E25-A5DB-B329CD34D825}"/>
-    <hyperlink ref="B370" r:id="rId369" xr:uid="{7F7E4C00-9D42-437D-8589-EBF335D706B4}"/>
-    <hyperlink ref="B371" r:id="rId370" xr:uid="{71D8CC20-0B0D-4D67-9FEA-329C112E0059}"/>
-    <hyperlink ref="B372" r:id="rId371" xr:uid="{6031C3C0-FBF4-41B0-89B7-29EFB624975D}"/>
-    <hyperlink ref="B373" r:id="rId372" xr:uid="{AC9DC6A7-0405-43E9-9A92-726A241EFC63}"/>
-    <hyperlink ref="B374" r:id="rId373" xr:uid="{5AFBBA3E-A685-43C5-B262-19C5C48E1EA5}"/>
-    <hyperlink ref="B375" r:id="rId374" xr:uid="{547297B3-A44F-46E2-82E9-C736E2E552DF}"/>
-    <hyperlink ref="B376" r:id="rId375" xr:uid="{3DF00C57-CBD7-4AE6-8CCC-6354BA220252}"/>
-    <hyperlink ref="B377" r:id="rId376" xr:uid="{58A59594-3DE3-4F80-A836-B78FC782C89C}"/>
-    <hyperlink ref="B378" r:id="rId377" xr:uid="{CDD85F8D-11E6-4A38-B9BA-75AF1AB1709F}"/>
-    <hyperlink ref="B379" r:id="rId378" xr:uid="{82501946-EDE5-4AEC-982C-F89ECF832581}"/>
-    <hyperlink ref="B380" r:id="rId379" xr:uid="{BE59D956-E8B3-4819-9360-96FF01FA7C6A}"/>
-    <hyperlink ref="B381" r:id="rId380" xr:uid="{67E62E51-DC6E-41F1-B6DB-3E9906D1076E}"/>
-    <hyperlink ref="B382" r:id="rId381" xr:uid="{81E68BE5-D154-4B9E-A91D-486EC6FB43D6}"/>
-    <hyperlink ref="B383" r:id="rId382" xr:uid="{FB006A4F-F90D-473E-A97D-37ED4FFF3CF7}"/>
-    <hyperlink ref="B384" r:id="rId383" xr:uid="{2B8C6B02-ABCA-4384-B8A5-5FB54F7D1EFE}"/>
-    <hyperlink ref="B385" r:id="rId384" xr:uid="{55287167-7D77-4825-A008-502FA6A521C5}"/>
-    <hyperlink ref="B386" r:id="rId385" xr:uid="{D195BEE9-21F8-44A2-A8A7-6572ECBE80E0}"/>
-    <hyperlink ref="B387" r:id="rId386" xr:uid="{A17EE779-F07D-4702-9E6F-46C16721F55A}"/>
-    <hyperlink ref="B388" r:id="rId387" xr:uid="{5C44AE67-F225-489D-B292-6A276E4AD015}"/>
-    <hyperlink ref="B389" r:id="rId388" xr:uid="{A9F28205-D5BC-40BB-80AB-FEE1633033BC}"/>
-    <hyperlink ref="B390" r:id="rId389" xr:uid="{F616206F-6CAA-4950-8D78-AFF3A7A38048}"/>
-    <hyperlink ref="B391" r:id="rId390" xr:uid="{E031F967-FFA0-4E29-9266-0D1DAF73BB7E}"/>
-    <hyperlink ref="B392" r:id="rId391" xr:uid="{5F2DB202-43EF-4E3A-AE29-1B9D58A4BEDD}"/>
-    <hyperlink ref="B393" r:id="rId392" xr:uid="{A47B634C-ECA9-40CB-AEB8-3EA2F4B82286}"/>
-    <hyperlink ref="B394" r:id="rId393" xr:uid="{E7CBDF66-0B11-4F01-9684-067F9E7CE044}"/>
-    <hyperlink ref="B395" r:id="rId394" xr:uid="{A94D2638-ECFA-4FC7-BC33-9EAA1822178D}"/>
-    <hyperlink ref="B396" r:id="rId395" xr:uid="{4330646D-9870-4309-B09B-5A7CCA65CCC1}"/>
-    <hyperlink ref="B397" r:id="rId396" xr:uid="{CE5FCB03-A722-4AF3-96DE-936D4A449569}"/>
-    <hyperlink ref="B398" r:id="rId397" xr:uid="{78E84973-DF08-40BA-B077-4E2EE947C0E2}"/>
-    <hyperlink ref="B399" r:id="rId398" xr:uid="{FEA15322-8E1B-404B-BF4C-8118CD5F6A04}"/>
-    <hyperlink ref="B400" r:id="rId399" xr:uid="{A9DB75EF-F3C6-47AB-A12D-C8409E241AA0}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="A81" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="A144" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="A184" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="A240" r:id="rId240" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="A241" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="A243" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="A268" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="A269" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="A270" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="A271" r:id="rId271" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="A272" r:id="rId272" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="A273" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="A274" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="A275" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="A276" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="A277" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="A278" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="A279" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="A280" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="A281" r:id="rId281" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="A282" r:id="rId282" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="A283" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="A284" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="A285" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="A286" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="A287" r:id="rId287" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="A288" r:id="rId288" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="A289" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="A290" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="A291" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="A292" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="A293" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="A294" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="A295" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="A296" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="A297" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="A298" r:id="rId298" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="A299" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="A300" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="A301" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="A302" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="A303" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="A304" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="A305" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="A306" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="A307" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="A308" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="A309" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="A310" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="A311" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="A312" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="A313" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="A314" r:id="rId314" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="A315" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="A316" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="A317" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="A318" r:id="rId318" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="A319" r:id="rId319" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="A320" r:id="rId320" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="A321" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="A322" r:id="rId322" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="A323" r:id="rId323" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="A324" r:id="rId324" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="A325" r:id="rId325" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="A326" r:id="rId326" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="A327" r:id="rId327" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="A328" r:id="rId328" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="A329" r:id="rId329" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="A330" r:id="rId330" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="A331" r:id="rId331" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="A332" r:id="rId332" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="A333" r:id="rId333" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="A334" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="A335" r:id="rId335" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="A336" r:id="rId336" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="A337" r:id="rId337" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="A338" r:id="rId338" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="A339" r:id="rId339" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="A340" r:id="rId340" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="A341" r:id="rId341" xr:uid="{348DA2AE-3FCB-41B3-B3B7-4F37B8C82597}"/>
+    <hyperlink ref="A342" r:id="rId342" xr:uid="{08FDCA7F-F9DB-40E3-AD11-1943AC877926}"/>
+    <hyperlink ref="A343" r:id="rId343" xr:uid="{0CC44A34-EA19-4CC6-BCC5-3AE11AB0EF1A}"/>
+    <hyperlink ref="A344" r:id="rId344" xr:uid="{93728EA0-C0C4-4D6B-9F66-7E5373C9321B}"/>
+    <hyperlink ref="A345" r:id="rId345" xr:uid="{635DAA35-4CB8-4A8B-A852-E098FD319FE8}"/>
+    <hyperlink ref="A346" r:id="rId346" xr:uid="{A623368D-2E9E-4FA9-B7F2-0EBD2B814DC7}"/>
+    <hyperlink ref="A347" r:id="rId347" xr:uid="{C578FCDC-7AE5-413B-A1D7-FD5D43F318FC}"/>
+    <hyperlink ref="A348" r:id="rId348" xr:uid="{B96179F8-8789-41C3-8461-82901AB4C21C}"/>
+    <hyperlink ref="A349" r:id="rId349" xr:uid="{170B9823-6D75-44CF-B219-0ECB9F3C51EA}"/>
+    <hyperlink ref="A350" r:id="rId350" xr:uid="{D602B0FE-CCCE-40E5-BEA0-3F274AA4A977}"/>
+    <hyperlink ref="A351" r:id="rId351" xr:uid="{FB967B59-D819-4F17-9CCD-F9DFBDFC4B90}"/>
+    <hyperlink ref="A352" r:id="rId352" xr:uid="{D30C8031-BD8B-4461-9158-08BCE73962F9}"/>
+    <hyperlink ref="A353" r:id="rId353" xr:uid="{9414AF50-80CE-4467-9A2B-680D775D70CB}"/>
+    <hyperlink ref="A354" r:id="rId354" xr:uid="{261A157E-0579-455C-A146-550219888222}"/>
+    <hyperlink ref="A355" r:id="rId355" xr:uid="{45191674-6622-42BE-9B4C-FC53485A11B0}"/>
+    <hyperlink ref="A356" r:id="rId356" xr:uid="{9878737A-5A4A-419B-A2E5-C5588C8A1745}"/>
+    <hyperlink ref="A357" r:id="rId357" xr:uid="{0C8D65FA-B447-4953-9111-29D2337889C7}"/>
+    <hyperlink ref="A358" r:id="rId358" xr:uid="{676B4017-99C5-4B81-AEB4-18F71A7F16FD}"/>
+    <hyperlink ref="A359" r:id="rId359" xr:uid="{0C8579A7-5BD2-4ABF-A166-68A675FE7F51}"/>
+    <hyperlink ref="A360" r:id="rId360" xr:uid="{AA1BFDE2-EFE2-4903-8E20-6F9145B8181D}"/>
+    <hyperlink ref="A361" r:id="rId361" xr:uid="{75C1C959-2731-4E30-82FC-39943867EBAF}"/>
+    <hyperlink ref="A362" r:id="rId362" xr:uid="{A664108D-8ECD-49AE-916F-F8DAB08BD6D9}"/>
+    <hyperlink ref="A363" r:id="rId363" xr:uid="{7886D445-A440-4114-91F9-27861945E03C}"/>
+    <hyperlink ref="A364" r:id="rId364" xr:uid="{096F52C1-1D72-453A-AEA4-40E88DFFF11A}"/>
+    <hyperlink ref="A365" r:id="rId365" xr:uid="{D07DE125-9D1F-48FB-ABAB-BA1D5B94A60C}"/>
+    <hyperlink ref="A366" r:id="rId366" xr:uid="{5E7BA8ED-2755-4435-9211-590ACB4C6A47}"/>
+    <hyperlink ref="A367" r:id="rId367" xr:uid="{3406C323-6F85-4BCF-B943-7BB8387F3372}"/>
+    <hyperlink ref="A368" r:id="rId368" xr:uid="{B6557699-28AB-4E25-A5DB-B329CD34D825}"/>
+    <hyperlink ref="A369" r:id="rId369" xr:uid="{7F7E4C00-9D42-437D-8589-EBF335D706B4}"/>
+    <hyperlink ref="A370" r:id="rId370" xr:uid="{71D8CC20-0B0D-4D67-9FEA-329C112E0059}"/>
+    <hyperlink ref="A371" r:id="rId371" xr:uid="{6031C3C0-FBF4-41B0-89B7-29EFB624975D}"/>
+    <hyperlink ref="A372" r:id="rId372" xr:uid="{AC9DC6A7-0405-43E9-9A92-726A241EFC63}"/>
+    <hyperlink ref="A373" r:id="rId373" xr:uid="{5AFBBA3E-A685-43C5-B262-19C5C48E1EA5}"/>
+    <hyperlink ref="A374" r:id="rId374" xr:uid="{547297B3-A44F-46E2-82E9-C736E2E552DF}"/>
+    <hyperlink ref="A375" r:id="rId375" xr:uid="{3DF00C57-CBD7-4AE6-8CCC-6354BA220252}"/>
+    <hyperlink ref="A376" r:id="rId376" xr:uid="{58A59594-3DE3-4F80-A836-B78FC782C89C}"/>
+    <hyperlink ref="A377" r:id="rId377" xr:uid="{CDD85F8D-11E6-4A38-B9BA-75AF1AB1709F}"/>
+    <hyperlink ref="A378" r:id="rId378" xr:uid="{82501946-EDE5-4AEC-982C-F89ECF832581}"/>
+    <hyperlink ref="A379" r:id="rId379" xr:uid="{BE59D956-E8B3-4819-9360-96FF01FA7C6A}"/>
+    <hyperlink ref="A380" r:id="rId380" xr:uid="{67E62E51-DC6E-41F1-B6DB-3E9906D1076E}"/>
+    <hyperlink ref="A381" r:id="rId381" xr:uid="{81E68BE5-D154-4B9E-A91D-486EC6FB43D6}"/>
+    <hyperlink ref="A382" r:id="rId382" xr:uid="{FB006A4F-F90D-473E-A97D-37ED4FFF3CF7}"/>
+    <hyperlink ref="A383" r:id="rId383" xr:uid="{2B8C6B02-ABCA-4384-B8A5-5FB54F7D1EFE}"/>
+    <hyperlink ref="A384" r:id="rId384" xr:uid="{55287167-7D77-4825-A008-502FA6A521C5}"/>
+    <hyperlink ref="A385" r:id="rId385" xr:uid="{D195BEE9-21F8-44A2-A8A7-6572ECBE80E0}"/>
+    <hyperlink ref="A386" r:id="rId386" xr:uid="{A17EE779-F07D-4702-9E6F-46C16721F55A}"/>
+    <hyperlink ref="A387" r:id="rId387" xr:uid="{5C44AE67-F225-489D-B292-6A276E4AD015}"/>
+    <hyperlink ref="A388" r:id="rId388" xr:uid="{A9F28205-D5BC-40BB-80AB-FEE1633033BC}"/>
+    <hyperlink ref="A389" r:id="rId389" xr:uid="{F616206F-6CAA-4950-8D78-AFF3A7A38048}"/>
+    <hyperlink ref="A390" r:id="rId390" xr:uid="{E031F967-FFA0-4E29-9266-0D1DAF73BB7E}"/>
+    <hyperlink ref="A391" r:id="rId391" xr:uid="{5F2DB202-43EF-4E3A-AE29-1B9D58A4BEDD}"/>
+    <hyperlink ref="A392" r:id="rId392" xr:uid="{A47B634C-ECA9-40CB-AEB8-3EA2F4B82286}"/>
+    <hyperlink ref="A393" r:id="rId393" xr:uid="{E7CBDF66-0B11-4F01-9684-067F9E7CE044}"/>
+    <hyperlink ref="A394" r:id="rId394" xr:uid="{A94D2638-ECFA-4FC7-BC33-9EAA1822178D}"/>
+    <hyperlink ref="A395" r:id="rId395" xr:uid="{4330646D-9870-4309-B09B-5A7CCA65CCC1}"/>
+    <hyperlink ref="A396" r:id="rId396" xr:uid="{CE5FCB03-A722-4AF3-96DE-936D4A449569}"/>
+    <hyperlink ref="A397" r:id="rId397" xr:uid="{78E84973-DF08-40BA-B077-4E2EE947C0E2}"/>
+    <hyperlink ref="A398" r:id="rId398" xr:uid="{FEA15322-8E1B-404B-BF4C-8118CD5F6A04}"/>
+    <hyperlink ref="A399" r:id="rId399" xr:uid="{A9DB75EF-F3C6-47AB-A12D-C8409E241AA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
